--- a/app/data/absenteeism_data_22.xlsx
+++ b/app/data/absenteeism_data_22.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>92908</v>
+        <v>72708</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Felipe Lima</t>
+          <t>Levi Fogaça</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,85 +494,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45089</v>
       </c>
       <c r="G2" t="n">
-        <v>11358.14</v>
+        <v>10804.19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14528</v>
+        <v>99552</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caio Lima</t>
+          <t>André Martins</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45103</v>
       </c>
       <c r="G3" t="n">
-        <v>11068.47</v>
+        <v>6762.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13089</v>
+        <v>45556</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabelly Jesus</t>
+          <t>Bruno Azevedo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45104</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>7818.24</v>
+        <v>10347.94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22920</v>
+        <v>82670</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kaique Martins</t>
+          <t>Emilly Azevedo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,51 +581,51 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45086</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>5275.32</v>
+        <v>11259.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2868</v>
+        <v>87526</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rodrigo Mendes</t>
+          <t>Maria Cecília Rocha</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45086</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>7012.75</v>
+        <v>3432.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22117</v>
+        <v>80260</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Beatriz Porto</t>
+          <t>Guilherme Souza</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,133 +635,133 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45089</v>
+        <v>45081</v>
       </c>
       <c r="G7" t="n">
-        <v>7475.61</v>
+        <v>9078.290000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17148</v>
+        <v>17957</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bernardo da Luz</t>
+          <t>Kevin Barbosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>5992.59</v>
+        <v>5198.46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>46299</v>
+        <v>11852</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Noah Cunha</t>
+          <t>João Pedro Carvalho</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45103</v>
+        <v>45083</v>
       </c>
       <c r="G9" t="n">
-        <v>11198.58</v>
+        <v>6096.62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8922</v>
+        <v>45738</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Esther Freitas</t>
+          <t>Miguel Costela</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45082</v>
       </c>
       <c r="G10" t="n">
-        <v>7686.38</v>
+        <v>9994.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>69184</v>
+        <v>78250</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Miguel Sales</t>
+          <t>Maria Eduarda Novaes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45106</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>2913.66</v>
+        <v>4383.67</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/absenteeism_data_22.xlsx
+++ b/app/data/absenteeism_data_22.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19503</v>
+        <v>61350</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lavínia Moraes</t>
+          <t>Ana Pereira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45104</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>3699.17</v>
+        <v>10047.49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98318</v>
+        <v>80554</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fernanda da Mota</t>
+          <t>Henrique da Cunha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45091</v>
+        <v>45099</v>
       </c>
       <c r="G3" t="n">
-        <v>11526.79</v>
+        <v>3232.42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>79917</v>
+        <v>42299</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alícia Pereira</t>
+          <t>Nicole Cardoso</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45082</v>
       </c>
       <c r="G4" t="n">
-        <v>12203.67</v>
+        <v>4904.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>70094</v>
+        <v>96835</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Caio Caldeira</t>
+          <t>Enzo Silva</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>4277.24</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45092</v>
+        <v>97830</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Calebe Peixoto</t>
+          <t>Srta. Juliana Novaes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45097</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>12097.21</v>
+        <v>5478.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>75785</v>
+        <v>15142</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vitor Sales</t>
+          <t>Paulo Cunha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45103</v>
       </c>
       <c r="G7" t="n">
-        <v>3930.69</v>
+        <v>6010.36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>54383</v>
+        <v>56475</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Melo</t>
+          <t>Sr. Henrique Jesus</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>7026.28</v>
+        <v>11545.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>63685</v>
+        <v>40567</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yago Barbosa</t>
+          <t>Valentina Vieira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>9010.52</v>
+        <v>4415.13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84381</v>
+        <v>84022</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Breno Martins</t>
+          <t>Thales Araújo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>7552.46</v>
+        <v>5526.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11568</v>
+        <v>87688</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Marcela da Paz</t>
+          <t>Calebe Ribeiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45101</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>8200.469999999999</v>
+        <v>11888.09</v>
       </c>
     </row>
   </sheetData>
